--- a/excel/excel-training/Level 1/Sales Transactions - BEGIN.xlsx
+++ b/excel/excel-training/Level 1/Sales Transactions - BEGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Excel Campus\Courses\Elevate\Course Files\Published\Level 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBB27A6-09C1-435B-BD39-2CE380647C94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B900390-9549-CC41-8363-E515256E814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="708" xr2:uid="{45683F96-23D5-413F-8462-E8AA2DA3B71A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="708" activeTab="1" xr2:uid="{45683F96-23D5-413F-8462-E8AA2DA3B71A}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="21" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="143">
   <si>
     <t>Order Date</t>
   </si>
@@ -477,6 +477,21 @@
   </si>
   <si>
     <t>This cell contains a lot of text and overflows to the next column.</t>
+  </si>
+  <si>
+    <t>Revenue +/-</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -733,7 +748,7 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -815,7 +830,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,8 +844,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
@@ -840,55 +854,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent [2]" xfId="5" xr:uid="{A17A0829-4E04-4E67-8BB1-FE3DD5B6A989}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -929,7 +895,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3711,18 +3677,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA3D123-FBE9-4A29-B7C0-20CC5375B11A}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="45" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="45" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="46" t="s">
         <v>127</v>
       </c>
@@ -3735,17 +3701,17 @@
       <c r="J1" s="47"/>
       <c r="K1" s="47"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="41">
         <v>1</v>
       </c>
@@ -3753,7 +3719,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="41">
         <v>2</v>
       </c>
@@ -3761,7 +3727,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="41">
         <v>3</v>
       </c>
@@ -3769,7 +3735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="41">
         <v>4</v>
       </c>
@@ -3777,7 +3743,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="41">
         <v>5</v>
       </c>
@@ -3785,7 +3751,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="41">
         <v>6</v>
       </c>
@@ -3793,7 +3759,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="41">
         <v>7</v>
       </c>
@@ -3801,7 +3767,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="41">
         <v>8</v>
       </c>
@@ -3809,7 +3775,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="41">
         <v>9</v>
       </c>
@@ -3817,7 +3783,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="41">
         <v>10</v>
       </c>
@@ -3825,17 +3791,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="42" t="s">
         <v>126</v>
       </c>
@@ -3868,20 +3834,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>115</v>
       </c>
@@ -3898,7 +3864,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
@@ -3915,7 +3881,7 @@
         <v>423.43567500000012</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -3932,7 +3898,7 @@
         <v>460.06344000000013</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
@@ -3949,7 +3915,7 @@
         <v>5564.8384000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>50</v>
       </c>
@@ -3966,7 +3932,7 @@
         <v>4325.5816599999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -3998,13 +3964,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4012,7 +3978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4020,7 +3986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -4028,7 +3994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -4036,7 +4002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4044,7 +4010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4052,7 +4018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -4060,7 +4026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -4068,7 +4034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -4076,7 +4042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -4084,7 +4050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4092,7 +4058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4100,7 +4066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4108,7 +4074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -4116,7 +4082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -4124,7 +4090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -4140,28 +4106,28 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAF412A-3DA2-4D5A-B0CF-10EA47E3B039}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -4181,7 +4147,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43101</v>
       </c>
@@ -4199,7 +4165,7 @@
       </c>
       <c r="F4" s="35"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43101</v>
       </c>
@@ -4219,7 +4185,7 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43101</v>
       </c>
@@ -4237,7 +4203,7 @@
       </c>
       <c r="F6" s="35"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
@@ -4257,7 +4223,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43101</v>
       </c>
@@ -4275,7 +4241,7 @@
       </c>
       <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43102</v>
       </c>
@@ -4295,7 +4261,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43102</v>
       </c>
@@ -4313,7 +4279,7 @@
       </c>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43103</v>
       </c>
@@ -4333,18 +4299,10 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4355,27 +4313,41 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC72F5F-E657-46E3-8B37-6CE1A50A9400}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="12">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -4391,8 +4363,20 @@
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43101</v>
       </c>
@@ -4408,8 +4392,24 @@
       <c r="E4" s="49">
         <v>93.702000000000012</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>C4*D4</f>
+        <v>8924</v>
+      </c>
+      <c r="G4">
+        <f>$F4*(1+G$2)</f>
+        <v>9637.92</v>
+      </c>
+      <c r="H4">
+        <f>$F4*(1+H$2)</f>
+        <v>9816.4000000000015</v>
+      </c>
+      <c r="I4">
+        <f>$F4*(1+I$2)</f>
+        <v>8477.7999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43101</v>
       </c>
@@ -4425,8 +4425,24 @@
       <c r="E5" s="50">
         <v>89.14800000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="0">C5*D5</f>
+        <v>8740</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:I11" si="1">$F5*(1+G$2)</f>
+        <v>9439.2000000000007</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>9614</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>8303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43101</v>
       </c>
@@ -4442,8 +4458,24 @@
       <c r="E6" s="50">
         <v>41.510399999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4324</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>4669.92</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>4756.4000000000005</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>4107.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
@@ -4459,8 +4491,24 @@
       <c r="E7" s="50">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43101</v>
       </c>
@@ -4476,8 +4524,24 @@
       <c r="E8" s="50">
         <v>27.717300000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2691</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2906.28</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2960.1000000000004</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>2556.4499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43102</v>
       </c>
@@ -4493,8 +4557,24 @@
       <c r="E9" s="50">
         <v>13.86</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1512</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43102</v>
       </c>
@@ -4510,8 +4590,24 @@
       <c r="E10" s="50">
         <v>62.83</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>8100</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>8748</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>8910</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>7695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43103</v>
       </c>
@@ -4526,6 +4622,167 @@
       </c>
       <c r="E11" s="50">
         <v>26.25</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2625</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2835</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>2887.5000000000005</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>2493.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="52">
+        <f t="shared" ref="D12:I12" si="2">SUM(D4:D11)</f>
+        <v>4190</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="2"/>
+        <v>375.01770000000005</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="2"/>
+        <v>36804</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="2"/>
+        <v>39748.32</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="2"/>
+        <v>40484.400000000001</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="2"/>
+        <v>34963.800000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="52">
+        <f>AVERAGE(D4:D11)</f>
+        <v>523.75</v>
+      </c>
+      <c r="E14" s="52">
+        <f t="shared" ref="E14:I14" si="3">AVERAGE(E4:E11)</f>
+        <v>46.877212500000006</v>
+      </c>
+      <c r="F14" s="52">
+        <f t="shared" si="3"/>
+        <v>4600.5</v>
+      </c>
+      <c r="G14" s="52">
+        <f t="shared" si="3"/>
+        <v>4968.54</v>
+      </c>
+      <c r="H14" s="52">
+        <f t="shared" si="3"/>
+        <v>5060.55</v>
+      </c>
+      <c r="I14" s="52">
+        <f t="shared" si="3"/>
+        <v>4370.4750000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15">
+        <f>COUNT(D4:D11)</f>
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:I15" si="4">COUNT(E4:E11)</f>
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="52">
+        <f>MAX(D4:D11)</f>
+        <v>970</v>
+      </c>
+      <c r="E16" s="52">
+        <f t="shared" ref="E16:I16" si="5">MAX(E4:E11)</f>
+        <v>93.702000000000012</v>
+      </c>
+      <c r="F16" s="52">
+        <f t="shared" si="5"/>
+        <v>8924</v>
+      </c>
+      <c r="G16" s="52">
+        <f t="shared" si="5"/>
+        <v>9637.92</v>
+      </c>
+      <c r="H16" s="52">
+        <f t="shared" si="5"/>
+        <v>9816.4000000000015</v>
+      </c>
+      <c r="I16" s="52">
+        <f t="shared" si="5"/>
+        <v>8477.7999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="52">
+        <f>MIN(D4:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="52">
+        <f t="shared" ref="E17:I17" si="6">MIN(E4:E11)</f>
+        <v>13.86</v>
+      </c>
+      <c r="F17" s="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="52">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4536,35 +4793,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B793B8B-0FEF-4783-AB7B-176BFE98F038}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -4572,7 +4829,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -4580,7 +4837,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4588,58 +4845,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4654,24 +4893,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="56"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>62</v>
       </c>
@@ -4679,15 +4918,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="51">
         <v>1234.56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
@@ -4695,7 +4934,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>69</v>
       </c>
@@ -4703,7 +4942,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>70</v>
       </c>
@@ -4711,13 +4950,13 @@
         <v>1234.56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>68</v>
       </c>
@@ -4737,19 +4976,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>103</v>
       </c>
@@ -4771,7 +5010,7 @@
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="31" t="s">
         <v>71</v>
@@ -4810,12 +5049,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>84</v>
       </c>
@@ -4857,7 +5096,7 @@
       </c>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>85</v>
       </c>
@@ -4898,7 +5137,7 @@
         <v>244219.39880000005</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>86</v>
       </c>
@@ -4939,7 +5178,7 @@
         <v>80173.583100000018</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>87</v>
       </c>
@@ -4992,7 +5231,7 @@
         <v>522620.60240000009</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -5006,7 +5245,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>88</v>
       </c>
@@ -5023,7 +5262,7 @@
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>89</v>
       </c>
@@ -5040,7 +5279,7 @@
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>90</v>
       </c>
@@ -5081,7 +5320,7 @@
         <v>58497</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>91</v>
       </c>
@@ -5122,7 +5361,7 @@
         <v>76803</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>92</v>
       </c>
@@ -5175,7 +5414,7 @@
         <v>135300</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>93</v>
       </c>
@@ -5216,7 +5455,7 @@
         <v>129639</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>94</v>
       </c>
@@ -5257,7 +5496,7 @@
         <v>117250</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>95</v>
       </c>
@@ -5310,7 +5549,7 @@
         <v>382189</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -5325,7 +5564,7 @@
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>96</v>
       </c>
@@ -5378,7 +5617,7 @@
         <v>140431.60240000009</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -5392,7 +5631,7 @@
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>97</v>
       </c>
@@ -5409,7 +5648,7 @@
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>98</v>
       </c>
@@ -5453,7 +5692,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>99</v>
       </c>
@@ -5494,7 +5733,7 @@
         <v>50721</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>100</v>
       </c>
@@ -5535,7 +5774,7 @@
         <v>131346</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>101</v>
       </c>
@@ -5588,7 +5827,7 @@
         <v>214402</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -5602,7 +5841,7 @@
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>102</v>
       </c>
@@ -5655,10 +5894,10 @@
         <v>-73970.397599999909</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:15" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="B29:M29">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5674,18 +5913,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>110</v>
       </c>
@@ -5693,7 +5932,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -5701,7 +5940,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -5709,7 +5948,7 @@
         <v>1245.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -5729,55 +5968,55 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="4" width="9.85546875" customWidth="1" outlineLevel="2"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="8" width="9.85546875" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="12" width="9.85546875" customWidth="1" outlineLevel="2"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="16" width="9.85546875" customWidth="1" outlineLevel="2"/>
-    <col min="17" max="17" width="9.85546875" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="4" width="9.83203125" customWidth="1" outlineLevel="2"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="8" width="9.83203125" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="12" width="9.83203125" customWidth="1" outlineLevel="2"/>
+    <col min="13" max="13" width="9.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="16" width="9.83203125" customWidth="1" outlineLevel="2"/>
+    <col min="17" max="17" width="9.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="55" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
       <c r="R3" s="34">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="31" t="s">
         <v>71</v>
@@ -5831,12 +6070,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>84</v>
       </c>
@@ -5897,7 +6136,7 @@
         <v>2867655.7806000002</v>
       </c>
     </row>
-    <row r="8" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>85</v>
       </c>
@@ -5958,7 +6197,7 @@
         <v>3517518.4941000007</v>
       </c>
     </row>
-    <row r="9" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>86</v>
       </c>
@@ -6019,7 +6258,7 @@
         <v>3007336.2072000005</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>87</v>
       </c>
@@ -6092,7 +6331,7 @@
         <v>9392510.4819000009</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
@@ -6111,7 +6350,7 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
     </row>
-    <row r="12" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>88</v>
       </c>
@@ -6133,7 +6372,7 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
     </row>
-    <row r="13" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>89</v>
       </c>
@@ -6155,7 +6394,7 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
     </row>
-    <row r="14" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>90</v>
       </c>
@@ -6216,7 +6455,7 @@
         <v>1176554</v>
       </c>
     </row>
-    <row r="15" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>91</v>
       </c>
@@ -6277,7 +6516,7 @@
         <v>1098955</v>
       </c>
     </row>
-    <row r="16" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>92</v>
       </c>
@@ -6350,7 +6589,7 @@
         <v>2275509</v>
       </c>
     </row>
-    <row r="17" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>93</v>
       </c>
@@ -6411,7 +6650,7 @@
         <v>1269766</v>
       </c>
     </row>
-    <row r="18" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>94</v>
       </c>
@@ -6472,7 +6711,7 @@
         <v>1064551</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
         <v>95</v>
       </c>
@@ -6545,7 +6784,7 @@
         <v>4609826</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -6565,7 +6804,7 @@
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>96</v>
       </c>
@@ -6638,7 +6877,7 @@
         <v>4782684.4819000009</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -6657,7 +6896,7 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
     </row>
-    <row r="23" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
         <v>97</v>
       </c>
@@ -6679,7 +6918,7 @@
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
     </row>
-    <row r="24" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>98</v>
       </c>
@@ -6740,7 +6979,7 @@
         <v>1032233</v>
       </c>
     </row>
-    <row r="25" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>99</v>
       </c>
@@ -6801,7 +7040,7 @@
         <v>884192</v>
       </c>
     </row>
-    <row r="26" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>100</v>
       </c>
@@ -6862,7 +7101,7 @@
         <v>1269967</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>101</v>
       </c>
@@ -6935,7 +7174,7 @@
         <v>3186392</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -6953,7 +7192,7 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>102</v>
       </c>
@@ -7026,7 +7265,7 @@
         <v>1596292.4819000009</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:18" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:E3"/>
@@ -7034,27 +7273,7 @@
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="N3:Q3"/>
   </mergeCells>
-  <conditionalFormatting sqref="J29:L29 N29:P29 B29:H29">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q29">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R29">
+  <conditionalFormatting sqref="B29:R29">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -7070,22 +7289,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -7108,7 +7327,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -7131,7 +7350,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -7154,7 +7373,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -7174,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -7197,7 +7416,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -7220,7 +7439,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -7243,7 +7462,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -7266,7 +7485,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -7289,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -7312,7 +7531,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -7335,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -7358,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -7381,7 +7600,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -7404,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -7427,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -7450,7 +7669,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -7473,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -7496,7 +7715,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -7519,7 +7738,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -7542,7 +7761,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -7565,7 +7784,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -7588,7 +7807,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -7608,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -7628,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -7651,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -7674,7 +7893,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -7697,7 +7916,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -7720,7 +7939,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -7743,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -7766,7 +7985,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -7789,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -7812,7 +8031,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -7835,7 +8054,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -7858,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -7878,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -7901,7 +8120,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -7924,7 +8143,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -7947,7 +8166,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -7970,7 +8189,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -7993,7 +8212,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -8016,7 +8235,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -8039,7 +8258,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -8062,7 +8281,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -8085,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -8108,7 +8327,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -8131,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -8154,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -8177,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -8197,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -8220,7 +8439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -8243,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -8266,7 +8485,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -8289,7 +8508,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -8312,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -8335,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -8358,7 +8577,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -8381,7 +8600,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -8404,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -8424,7 +8643,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -8447,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -8470,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -8493,7 +8712,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -8516,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>47</v>
       </c>
@@ -8539,7 +8758,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -8562,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -8585,7 +8804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -8608,7 +8827,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -8628,7 +8847,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -8651,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -8674,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -8697,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -8720,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>46</v>
       </c>
@@ -8743,7 +8962,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -8766,7 +8985,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>52</v>
       </c>
@@ -8789,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>45</v>
       </c>
@@ -8812,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -8835,7 +9054,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -8855,7 +9074,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -8878,7 +9097,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -8901,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -8937,13 +9156,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
@@ -8951,7 +9170,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
@@ -8959,7 +9178,7 @@
         <v>1882.5913000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>46</v>
       </c>
@@ -8967,7 +9186,7 @@
         <v>968.20450000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
@@ -8975,7 +9194,7 @@
         <v>945.03594999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
@@ -8983,7 +9202,7 @@
         <v>822.93200000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
@@ -8991,7 +9210,7 @@
         <v>809.50600000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>47</v>
       </c>
@@ -8999,7 +9218,7 @@
         <v>664.21623</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -9007,7 +9226,7 @@
         <v>566.11495000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>51</v>
       </c>
@@ -9015,7 +9234,7 @@
         <v>535.0793000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>52</v>
       </c>
@@ -9023,7 +9242,7 @@
         <v>520.20949999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -9031,7 +9250,7 @@
         <v>414.38090000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>43</v>
       </c>
@@ -9039,7 +9258,7 @@
         <v>381.44300000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>48</v>
       </c>
@@ -9047,7 +9266,7 @@
         <v>312.68</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
@@ -9055,7 +9274,7 @@
         <v>295.71975000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>50</v>
       </c>
@@ -9063,7 +9282,7 @@
         <v>183.48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
@@ -9071,7 +9290,7 @@
         <v>156.11850000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>55</v>
       </c>

--- a/excel/excel-training/Level 1/Sales Transactions - BEGIN.xlsx
+++ b/excel/excel-training/Level 1/Sales Transactions - BEGIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B900390-9549-CC41-8363-E515256E814B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49328F2-71DC-A64B-BE1D-461EB6A5C9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="708" activeTab="1" xr2:uid="{45683F96-23D5-413F-8462-E8AA2DA3B71A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="708" activeTab="5" xr2:uid="{45683F96-23D5-413F-8462-E8AA2DA3B71A}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="21" r:id="rId1"/>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="147">
   <si>
     <t>Order Date</t>
   </si>
@@ -492,13 +492,26 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>&lt;- Display is changed but value within cell still remains</t>
+  </si>
+  <si>
+    <t>0154</t>
+  </si>
+  <si>
+    <t>option + return
+(shortcut to new-line) Wrap Text is applied automatically</t>
+  </si>
+  <si>
+    <t>&lt;- Merge &amp; Centre OR Format Cells -&gt; alignment -&gt; Centre across selection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="10">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -507,10 +520,19 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -620,8 +642,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,8 +730,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -738,120 +780,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="6" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="8"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="43" fontId="1" fillId="14" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
+    <cellStyle name="60% - Accent2" xfId="9" builtinId="36"/>
     <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
     <cellStyle name="Currency" xfId="2" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="7" builtinId="5"/>
     <cellStyle name="Percent [2]" xfId="5" xr:uid="{A17A0829-4E04-4E67-8BB1-FE3DD5B6A989}"/>
   </cellStyles>
   <dxfs count="2">
@@ -2897,7 +3028,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF19216D-CE22-4E59-A34D-6FD36082420E}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF19216D-CE22-4E59-A34D-6FD36082420E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="164" showAll="0"/>
@@ -3688,121 +3819,121 @@
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="45" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:11" s="42" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="41">
+      <c r="B4" s="38">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="39" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="41">
+      <c r="B5" s="38">
         <v>2</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="39" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="41">
+      <c r="B6" s="38">
         <v>3</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="39" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="41">
+      <c r="B7" s="38">
         <v>4</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="39" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="41">
+      <c r="B8" s="38">
         <v>5</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="39" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="41">
+      <c r="B9" s="38">
         <v>6</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="41">
+      <c r="B10" s="38">
         <v>7</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="39" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="41">
+      <c r="B11" s="38">
         <v>8</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="41">
+      <c r="B12" s="38">
         <v>9</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="39" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="41">
+      <c r="B13" s="38">
         <v>10</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="39" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="41" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3848,19 +3979,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3868,16 +3999,16 @@
       <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="33">
         <v>704.21623</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="33">
         <v>325.71975000000003</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="35">
         <v>5704.1514630000001</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="35">
         <v>423.43567500000012</v>
       </c>
     </row>
@@ -3885,16 +4016,16 @@
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="33">
         <v>570.20949999999993</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="33">
         <v>575.0793000000001</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="35">
         <v>5188.9064499999995</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="35">
         <v>460.06344000000013</v>
       </c>
     </row>
@@ -3902,16 +4033,16 @@
       <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="33">
         <v>2002.5913000000003</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="33">
         <v>869.50599999999997</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="35">
         <v>2403.1095600000003</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="35">
         <v>5564.8384000000005</v>
       </c>
     </row>
@@ -3919,16 +4050,16 @@
       <c r="A7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="33">
         <v>203.48</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="33">
         <v>636.11495000000002</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="35">
         <v>345.916</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="35">
         <v>4325.5816599999998</v>
       </c>
     </row>
@@ -3936,16 +4067,16 @@
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="33">
         <v>872.93200000000002</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="33">
         <v>431.44300000000004</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="35">
         <v>960.22520000000009</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="35">
         <v>3537.8326000000002</v>
       </c>
     </row>
@@ -4163,7 +4294,7 @@
       <c r="E4" s="14">
         <v>93.702000000000012</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -4181,9 +4312,9 @@
       <c r="E5" s="6">
         <v>89.14800000000001</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -4201,7 +4332,7 @@
       <c r="E6" s="6">
         <v>41.510399999999997</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -4219,9 +4350,9 @@
       <c r="E7" s="6">
         <v>20</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -4239,7 +4370,7 @@
       <c r="E8" s="6">
         <v>27.717300000000005</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -4257,9 +4388,9 @@
       <c r="E9" s="6">
         <v>13.86</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -4277,7 +4408,7 @@
       <c r="E10" s="6">
         <v>62.83</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -4295,12 +4426,12 @@
       <c r="E11" s="6">
         <v>26.25</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="36" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4313,10 +4444,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC72F5F-E657-46E3-8B37-6CE1A50A9400}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4348,31 +4479,31 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="57" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4383,28 +4514,28 @@
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="45">
         <v>9.1999999999999993</v>
       </c>
       <c r="D4" s="5">
         <v>970</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="45">
         <v>93.702000000000012</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="45">
         <f>C4*D4</f>
         <v>8924</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="45">
         <f>$F4*(1+G$2)</f>
         <v>9637.92</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="45">
         <f>$F4*(1+H$2)</f>
         <v>9816.4000000000015</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="45">
         <f>$F4*(1+I$2)</f>
         <v>8477.7999999999993</v>
       </c>
@@ -4416,28 +4547,28 @@
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="45">
         <v>46</v>
       </c>
       <c r="D5" s="5">
         <v>190</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="46">
         <v>89.14800000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="45">
         <f t="shared" ref="F5:F11" si="0">C5*D5</f>
         <v>8740</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="45">
         <f t="shared" ref="G5:I11" si="1">$F5*(1+G$2)</f>
         <v>9439.2000000000007</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="45">
         <f t="shared" si="1"/>
         <v>9614</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="45">
         <f t="shared" si="1"/>
         <v>8303</v>
       </c>
@@ -4449,28 +4580,28 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="45">
         <v>9.1999999999999993</v>
       </c>
       <c r="D6" s="5">
         <v>470</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="46">
         <v>41.510399999999997</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="45">
         <f t="shared" si="0"/>
         <v>4324</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="45">
         <f t="shared" si="1"/>
         <v>4669.92</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="45">
         <f t="shared" si="1"/>
         <v>4756.4000000000005</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="45">
         <f t="shared" si="1"/>
         <v>4107.8</v>
       </c>
@@ -4482,28 +4613,28 @@
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="45">
         <v>0</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="46">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4515,28 +4646,28 @@
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="45">
         <v>2.99</v>
       </c>
       <c r="D8" s="5">
         <v>900</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="46">
         <v>27.717300000000005</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="45">
         <f t="shared" si="0"/>
         <v>2691</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="45">
         <f t="shared" si="1"/>
         <v>2906.28</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="45">
         <f t="shared" si="1"/>
         <v>2960.1000000000004</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="45">
         <f t="shared" si="1"/>
         <v>2556.4499999999998</v>
       </c>
@@ -4548,28 +4679,28 @@
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="45">
         <v>14</v>
       </c>
       <c r="D9" s="5">
         <v>100</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="46">
         <v>13.86</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="45">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="45">
         <f t="shared" si="1"/>
         <v>1512</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="45">
         <f t="shared" si="1"/>
         <v>1540.0000000000002</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="45">
         <f t="shared" si="1"/>
         <v>1330</v>
       </c>
@@ -4581,28 +4712,28 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="45">
         <v>10</v>
       </c>
       <c r="D10" s="5">
         <v>810</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="46">
         <v>62.83</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="45">
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="45">
         <f t="shared" si="1"/>
         <v>8748</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="45">
         <f t="shared" si="1"/>
         <v>8910</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="45">
         <f t="shared" si="1"/>
         <v>7695</v>
       </c>
@@ -4614,86 +4745,89 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="45">
         <v>3.5</v>
       </c>
       <c r="D11" s="5">
         <v>750</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="46">
         <v>26.25</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>2625</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="45">
         <f t="shared" si="1"/>
         <v>2835</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="45">
         <f t="shared" si="1"/>
         <v>2887.5000000000005</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="45">
         <f t="shared" si="1"/>
         <v>2493.75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="52">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59">
         <f t="shared" ref="D12:I12" si="2">SUM(D4:D11)</f>
         <v>4190</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="60">
         <f t="shared" si="2"/>
         <v>375.01770000000005</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="61">
         <f t="shared" si="2"/>
         <v>36804</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="61">
         <f t="shared" si="2"/>
         <v>39748.32</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="61">
         <f t="shared" si="2"/>
         <v>40484.400000000001</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="63">
         <f t="shared" si="2"/>
         <v>34963.800000000003</v>
       </c>
     </row>
+    <row r="13" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="5">
         <f>AVERAGE(D4:D11)</f>
         <v>523.75</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="45">
         <f t="shared" ref="E14:I14" si="3">AVERAGE(E4:E11)</f>
         <v>46.877212500000006</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="45">
         <f t="shared" si="3"/>
         <v>4600.5</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="45">
         <f t="shared" si="3"/>
         <v>4968.54</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="45">
         <f t="shared" si="3"/>
         <v>5060.55</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="45">
         <f t="shared" si="3"/>
         <v>4370.4750000000004</v>
       </c>
@@ -4702,27 +4836,27 @@
       <c r="C15" t="s">
         <v>140</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <f>COUNT(D4:D11)</f>
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="45">
         <f t="shared" ref="E15:I15" si="4">COUNT(E4:E11)</f>
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="45">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="45">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="45">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="45">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -4731,27 +4865,27 @@
       <c r="C16" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="5">
         <f>MAX(D4:D11)</f>
         <v>970</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="45">
         <f t="shared" ref="E16:I16" si="5">MAX(E4:E11)</f>
         <v>93.702000000000012</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="45">
         <f t="shared" si="5"/>
         <v>8924</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="45">
         <f t="shared" si="5"/>
         <v>9637.92</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="45">
         <f t="shared" si="5"/>
         <v>9816.4000000000015</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="45">
         <f t="shared" si="5"/>
         <v>8477.7999999999993</v>
       </c>
@@ -4760,30 +4894,33 @@
       <c r="C17" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="5">
         <f>MIN(D4:D11)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="45">
         <f t="shared" ref="E17:I17" si="6">MIN(E4:E11)</f>
         <v>13.86</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4793,17 +4930,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B793B8B-0FEF-4783-AB7B-176BFE98F038}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A3" zoomScale="186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
@@ -4811,17 +4948,17 @@
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -4829,7 +4966,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -4837,7 +4974,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -4845,72 +4982,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="51">
+        <v>12548.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>12548.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="52">
+        <v>12548.6</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="53">
+        <v>37658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>62</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B15" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A0A033-F32B-45A1-90B4-C609D35EB79F}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="220" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="70"/>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>62</v>
       </c>
@@ -4918,50 +5087,55 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="64">
         <v>1234.56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="65">
         <v>0.105</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="66">
         <v>43101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="67">
         <v>1234.56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="68" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B13" s="68" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4974,7 +5148,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4989,703 +5165,703 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32" t="s">
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="29" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>83792.261800000007</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>314862.17620000005</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>400910.75700000004</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>203722.75690000001</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>327463.28940000001</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>255024.02510000003</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>359088.88470000005</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>191512.92940000002</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <v>86394.168900000019</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <v>284681.76750000002</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="19">
         <v>161975.14320000005</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="19">
         <v>198227.62050000002</v>
       </c>
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <v>196642.48500000002</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>404089.59630000003</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>341977.98960000003</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>144641.47230000002</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>414711.43219999998</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>321214.14260000008</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>295749.15500000003</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>368793.91250000003</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>360168.49050000001</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>113635.65070000001</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="19">
         <v>311674.76860000007</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="19">
         <v>244219.39880000005</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>145009.90920000002</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>412869.24770000007</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>75952.267300000021</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>183530.12990000003</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="20">
         <v>360896.79599999997</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <v>387215.75750000007</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="20">
         <v>335894.49660000013</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="20">
         <v>353151.05280000006</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="20">
         <v>360474.09320000006</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="20">
         <v>219077.15050000002</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="20">
         <v>93091.723400000017</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="20">
         <v>80173.583100000018</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <f>SUM(B7:B9)</f>
         <v>425444.65600000008</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <f t="shared" ref="C10:M10" si="0">SUM(C7:C9)</f>
         <v>1131821.0202000001</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <f t="shared" si="0"/>
         <v>818841.01390000014</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <f t="shared" si="0"/>
         <v>531894.35910000012</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <f t="shared" si="0"/>
         <v>1103071.5175999999</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>963453.92520000017</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <f t="shared" si="0"/>
         <v>990732.53630000027</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <f t="shared" si="0"/>
         <v>913457.89470000018</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <f t="shared" si="0"/>
         <v>807036.75260000001</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="22">
         <f t="shared" si="0"/>
         <v>617394.56870000006</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="22">
         <f t="shared" si="0"/>
         <v>566741.63520000014</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="22">
         <f t="shared" si="0"/>
         <v>522620.60240000009</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>120159</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>131051</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <v>122972</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <v>50888</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>136872</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="22">
         <v>107389</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>75768</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <v>145023</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="22">
         <v>56273</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="22">
         <v>88652</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <v>83010</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="22">
         <v>58497</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="25">
         <v>42763</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="25">
         <v>70959</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <v>95335</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>105015</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="25">
         <v>144057</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="25">
         <v>77666</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="25">
         <v>119484</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="25">
         <v>124955</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="25">
         <v>115970</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="25">
         <v>47423</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="25">
         <v>78525</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="25">
         <v>76803</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <f>SUM(B14:B15)</f>
         <v>162922</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <f t="shared" ref="C16:M16" si="1">SUM(C14:C15)</f>
         <v>202010</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <f t="shared" si="1"/>
         <v>218307</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <f t="shared" si="1"/>
         <v>155903</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <f t="shared" si="1"/>
         <v>280929</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <f t="shared" si="1"/>
         <v>185055</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <f t="shared" si="1"/>
         <v>195252</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="22">
         <f t="shared" si="1"/>
         <v>269978</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="22">
         <f t="shared" si="1"/>
         <v>172243</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="22">
         <f t="shared" si="1"/>
         <v>136075</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="22">
         <f t="shared" si="1"/>
         <v>161535</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="22">
         <f t="shared" si="1"/>
         <v>135300</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>108379</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>129572</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <v>35957</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <v>25648</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22">
         <v>97790</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <v>137688</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="22">
         <v>93826</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="22">
         <v>113373</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="22">
         <v>120932</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="22">
         <v>128913</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="22">
         <v>148049</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="22">
         <v>129639</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="25">
         <v>133518</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="25">
         <v>123724</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>111259</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <v>38982</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="25">
         <v>115388</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <v>47405</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="25">
         <v>41929</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="25">
         <v>89623</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="25">
         <v>120844</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="25">
         <v>85002</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="25">
         <v>39627</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="25">
         <v>117250</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <f>SUM(B16:B18)</f>
         <v>404819</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <f t="shared" ref="C19:M19" si="2">SUM(C16:C18)</f>
         <v>455306</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <f t="shared" si="2"/>
         <v>365523</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <f t="shared" si="2"/>
         <v>220533</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <f t="shared" si="2"/>
         <v>494107</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="22">
         <f t="shared" si="2"/>
         <v>370148</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="22">
         <f t="shared" si="2"/>
         <v>331007</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="22">
         <f t="shared" si="2"/>
         <v>472974</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="22">
         <f t="shared" si="2"/>
         <v>414019</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="22">
         <f t="shared" si="2"/>
         <v>349990</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="22">
         <f t="shared" si="2"/>
         <v>349211</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="22">
         <f t="shared" si="2"/>
         <v>382189</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="22">
         <f t="shared" ref="B21:M21" si="3">B10-B19</f>
         <v>20625.656000000075</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <f t="shared" si="3"/>
         <v>676515.02020000014</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="22">
         <f t="shared" si="3"/>
         <v>453318.01390000014</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <f t="shared" si="3"/>
         <v>311361.35910000012</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="22">
         <f t="shared" si="3"/>
         <v>608964.5175999999</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="22">
         <f t="shared" si="3"/>
         <v>593305.92520000017</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="22">
         <f t="shared" si="3"/>
         <v>659725.53630000027</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="22">
         <f t="shared" si="3"/>
         <v>440483.89470000018</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="22">
         <f t="shared" si="3"/>
         <v>393017.75260000001</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="22">
         <f t="shared" si="3"/>
         <v>267404.56870000006</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="22">
         <f t="shared" si="3"/>
         <v>217530.63520000014</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="22">
         <f t="shared" si="3"/>
         <v>140431.60240000009</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="22">
         <v>86431</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <v>49816</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="22">
         <v>118328</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="22">
         <v>79272</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="22">
         <v>106695</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="22">
         <v>118283</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="22">
         <v>128103</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="22">
         <v>44604</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="22">
         <v>41412</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="22">
         <v>121117</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="22">
         <v>105837</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="22">
         <v>32335</v>
       </c>
       <c r="O24" s="12">
@@ -5693,203 +5869,203 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="22">
         <v>49931</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>69818</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="22">
         <v>32928</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="22">
         <v>32873</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <v>71297</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <v>140926</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="22">
         <v>80517</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="22">
         <v>86227</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="22">
         <v>88195</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="22">
         <v>66346</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="22">
         <v>114413</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="22">
         <v>50721</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="25">
         <v>55311</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="25">
         <v>146121</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="25">
         <v>145170</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="25">
         <v>45388</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="25">
         <v>146819</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="25">
         <v>82386</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="25">
         <v>141368</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="25">
         <v>147847</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="25">
         <v>71146</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="25">
         <v>108964</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="25">
         <v>48101</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="25">
         <v>131346</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="22">
         <f>SUM(B24:B26)</f>
         <v>191673</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <f t="shared" ref="C27:M27" si="4">SUM(C24:C26)</f>
         <v>265755</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="22">
         <f t="shared" si="4"/>
         <v>296426</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="22">
         <f t="shared" si="4"/>
         <v>157533</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="22">
         <f t="shared" si="4"/>
         <v>324811</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="22">
         <f t="shared" si="4"/>
         <v>341595</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="22">
         <f t="shared" si="4"/>
         <v>349988</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="22">
         <f t="shared" si="4"/>
         <v>278678</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="22">
         <f t="shared" si="4"/>
         <v>200753</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="22">
         <f t="shared" si="4"/>
         <v>296427</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="22">
         <f t="shared" si="4"/>
         <v>268351</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="22">
         <f t="shared" si="4"/>
         <v>214402</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
     </row>
     <row r="29" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="28">
         <f>B21-B27</f>
         <v>-171047.34399999992</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="28">
         <f t="shared" ref="C29:M29" si="5">C21-C27</f>
         <v>410760.02020000014</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="28">
         <f t="shared" si="5"/>
         <v>156892.01390000014</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="28">
         <f t="shared" si="5"/>
         <v>153828.35910000012</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="28">
         <f t="shared" si="5"/>
         <v>284153.5175999999</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="28">
         <f t="shared" si="5"/>
         <v>251710.92520000017</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="28">
         <f t="shared" si="5"/>
         <v>309737.53630000027</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="28">
         <f t="shared" si="5"/>
         <v>161805.89470000018</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="28">
         <f t="shared" si="5"/>
         <v>192264.75260000001</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="28">
         <f t="shared" si="5"/>
         <v>-29022.431299999938</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="28">
         <f t="shared" si="5"/>
         <v>-50820.364799999865</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="28">
         <f t="shared" si="5"/>
         <v>-73970.397599999909</v>
       </c>
@@ -5909,8 +6085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E959296A-0FF5-4D9F-BCAD-3645E1AE47FD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5919,24 +6095,25 @@
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
         <v>108</v>
       </c>
     </row>
+    <row r="2" spans="1:2" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="74">
         <v>1000</v>
       </c>
     </row>
@@ -5944,7 +6121,7 @@
       <c r="A5" t="s">
         <v>64</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="75">
         <v>1245.5</v>
       </c>
     </row>
@@ -5952,7 +6129,7 @@
       <c r="A6" t="s">
         <v>112</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="73">
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
@@ -5988,1279 +6165,1279 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="34">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="31">
         <v>2017</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>83792.261800000007</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>314862.17620000005</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>400910.75700000004</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <f>SUM(B7:D7)</f>
         <v>799565.19500000007</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>203722.75690000001</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>327463.28940000001</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>255024.02510000003</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <f>SUM(F7:H7)</f>
         <v>786210.07140000002</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <v>359088.88470000005</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <v>191512.92940000002</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="19">
         <v>86394.168900000019</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="19">
         <f>SUM(J7:L7)</f>
         <v>636995.98300000012</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="19">
         <v>284681.76750000002</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="19">
         <v>161975.14320000005</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="19">
         <v>198227.62050000002</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="19">
         <f>SUM(N7:P7)</f>
         <v>644884.53120000008</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="19">
         <f>E7+I7+M7+Q7</f>
         <v>2867655.7806000002</v>
       </c>
     </row>
     <row r="8" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <v>196642.48500000002</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>404089.59630000003</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>341977.98960000003</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <f>SUM(B8:D8)</f>
         <v>942710.07090000017</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>144641.47230000002</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>414711.43219999998</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>321214.14260000008</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <f>SUM(F8:H8)</f>
         <v>880567.04710000008</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>295749.15500000003</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>368793.91250000003</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="19">
         <v>360168.49050000001</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="19">
         <f>SUM(J8:L8)</f>
         <v>1024711.5580000002</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="19">
         <v>113635.65070000001</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="19">
         <v>311674.76860000007</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="19">
         <v>244219.39880000005</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="19">
         <f>SUM(N8:P8)</f>
         <v>669529.81810000015</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="19">
         <f>E8+I8+M8+Q8</f>
         <v>3517518.4941000007</v>
       </c>
     </row>
     <row r="9" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>145009.90920000002</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <v>412869.24770000007</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>75952.267300000021</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <f>SUM(B9:D9)</f>
         <v>633831.42420000012</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="20">
         <v>183530.12990000003</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <v>360896.79599999997</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="20">
         <v>387215.75750000007</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="20">
         <f>SUM(F9:H9)</f>
         <v>931642.6834000001</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="20">
         <v>335894.49660000013</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="20">
         <v>353151.05280000006</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="20">
         <v>360474.09320000006</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="20">
         <f>SUM(J9:L9)</f>
         <v>1049519.6426000001</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="20">
         <v>219077.15050000002</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="20">
         <v>93091.723400000017</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="20">
         <v>80173.583100000018</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="20">
         <f>SUM(N9:P9)</f>
         <v>392342.45700000005</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="20">
         <f>E9+I9+M9+Q9</f>
         <v>3007336.2072000005</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <f t="shared" ref="B10:R10" si="0">SUM(B7:B9)</f>
         <v>425444.65600000008</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <f t="shared" si="0"/>
         <v>1131821.0202000001</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <f t="shared" si="0"/>
         <v>818841.01390000014</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <f t="shared" si="0"/>
         <v>2376106.6901000002</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <f t="shared" si="0"/>
         <v>531894.35910000012</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>1103071.5175999999</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="22">
         <f t="shared" si="0"/>
         <v>963453.92520000017</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <f t="shared" si="0"/>
         <v>2598419.8019000003</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <f t="shared" si="0"/>
         <v>990732.53630000027</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="22">
         <f t="shared" si="0"/>
         <v>913457.89470000018</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="22">
         <f t="shared" si="0"/>
         <v>807036.75260000001</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="22">
         <f t="shared" si="0"/>
         <v>2711227.1836000001</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="22">
         <f t="shared" si="0"/>
         <v>617394.56870000006</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="22">
         <f t="shared" si="0"/>
         <v>566741.63520000014</v>
       </c>
-      <c r="P10" s="24">
+      <c r="P10" s="22">
         <f t="shared" si="0"/>
         <v>522620.60240000009</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="22">
         <f t="shared" si="0"/>
         <v>1706756.8063000003</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="22">
         <f t="shared" si="0"/>
         <v>9392510.4819000009</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
     </row>
     <row r="12" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
     </row>
     <row r="13" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
     </row>
     <row r="14" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>120159</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>131051</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <v>122972</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <f>SUM(B14:D14)</f>
         <v>374182</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>50888</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="22">
         <v>136872</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>107389</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <f>SUM(F14:H14)</f>
         <v>295149</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="22">
         <v>75768</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="22">
         <v>145023</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="22">
         <v>56273</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="22">
         <f>SUM(J14:L14)</f>
         <v>277064</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="22">
         <v>88652</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="22">
         <v>83010</v>
       </c>
-      <c r="P14" s="24">
+      <c r="P14" s="22">
         <v>58497</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14" s="22">
         <f>SUM(N14:P14)</f>
         <v>230159</v>
       </c>
-      <c r="R14" s="24">
+      <c r="R14" s="22">
         <f>E14+I14+M14+Q14</f>
         <v>1176554</v>
       </c>
     </row>
     <row r="15" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="25">
         <v>42763</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="25">
         <v>70959</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="25">
         <v>95335</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <f>SUM(B15:D15)</f>
         <v>209057</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="25">
         <v>105015</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="25">
         <v>144057</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="25">
         <v>77666</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="25">
         <f>SUM(F15:H15)</f>
         <v>326738</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="25">
         <v>119484</v>
       </c>
-      <c r="K15" s="27">
+      <c r="K15" s="25">
         <v>124955</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="25">
         <v>115970</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="25">
         <f>SUM(J15:L15)</f>
         <v>360409</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="25">
         <v>47423</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="25">
         <v>78525</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="25">
         <v>76803</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="25">
         <f>SUM(N15:P15)</f>
         <v>202751</v>
       </c>
-      <c r="R15" s="27">
+      <c r="R15" s="25">
         <f>E15+I15+M15+Q15</f>
         <v>1098955</v>
       </c>
     </row>
     <row r="16" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <f t="shared" ref="B16:R16" si="1">SUM(B14:B15)</f>
         <v>162922</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <f t="shared" si="1"/>
         <v>202010</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <f t="shared" si="1"/>
         <v>218307</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <f t="shared" si="1"/>
         <v>583239</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <f t="shared" si="1"/>
         <v>155903</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <f t="shared" si="1"/>
         <v>280929</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <f t="shared" si="1"/>
         <v>185055</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="22">
         <f t="shared" si="1"/>
         <v>621887</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="22">
         <f t="shared" si="1"/>
         <v>195252</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="22">
         <f t="shared" si="1"/>
         <v>269978</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="22">
         <f t="shared" si="1"/>
         <v>172243</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="22">
         <f t="shared" si="1"/>
         <v>637473</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="22">
         <f t="shared" si="1"/>
         <v>136075</v>
       </c>
-      <c r="O16" s="24">
+      <c r="O16" s="22">
         <f t="shared" si="1"/>
         <v>161535</v>
       </c>
-      <c r="P16" s="24">
+      <c r="P16" s="22">
         <f t="shared" si="1"/>
         <v>135300</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16" s="22">
         <f t="shared" si="1"/>
         <v>432910</v>
       </c>
-      <c r="R16" s="24">
+      <c r="R16" s="22">
         <f t="shared" si="1"/>
         <v>2275509</v>
       </c>
     </row>
     <row r="17" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>108379</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>129572</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <v>35957</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <f>SUM(B17:D17)</f>
         <v>273908</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22">
         <v>25648</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <v>97790</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="22">
         <v>137688</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="22">
         <f>SUM(F17:H17)</f>
         <v>261126</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="22">
         <v>93826</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="22">
         <v>113373</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="22">
         <v>120932</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="22">
         <f>SUM(J17:L17)</f>
         <v>328131</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="22">
         <v>128913</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="22">
         <v>148049</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="22">
         <v>129639</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17" s="22">
         <f>SUM(N17:P17)</f>
         <v>406601</v>
       </c>
-      <c r="R17" s="24">
+      <c r="R17" s="22">
         <f>E17+I17+M17+Q17</f>
         <v>1269766</v>
       </c>
     </row>
     <row r="18" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="25">
         <v>133518</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="25">
         <v>123724</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>111259</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <f>SUM(B18:D18)</f>
         <v>368501</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="25">
         <v>38982</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <v>115388</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="25">
         <v>47405</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="25">
         <f>SUM(F18:H18)</f>
         <v>201775</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="25">
         <v>41929</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="25">
         <v>89623</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="25">
         <v>120844</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="25">
         <f>SUM(J18:L18)</f>
         <v>252396</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="25">
         <v>85002</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="25">
         <v>39627</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="25">
         <v>117250</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="25">
         <f>SUM(N18:P18)</f>
         <v>241879</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="25">
         <f>E18+I18+M18+Q18</f>
         <v>1064551</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <f t="shared" ref="B19:R19" si="2">SUM(B16:B18)</f>
         <v>404819</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <f t="shared" si="2"/>
         <v>455306</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <f t="shared" si="2"/>
         <v>365523</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <f t="shared" si="2"/>
         <v>1225648</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <f t="shared" si="2"/>
         <v>220533</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="22">
         <f t="shared" si="2"/>
         <v>494107</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="22">
         <f t="shared" si="2"/>
         <v>370148</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="22">
         <f t="shared" si="2"/>
         <v>1084788</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="22">
         <f t="shared" si="2"/>
         <v>331007</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="22">
         <f t="shared" si="2"/>
         <v>472974</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="22">
         <f t="shared" si="2"/>
         <v>414019</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="22">
         <f t="shared" si="2"/>
         <v>1218000</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="22">
         <f t="shared" si="2"/>
         <v>349990</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="22">
         <f t="shared" si="2"/>
         <v>349211</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="22">
         <f t="shared" si="2"/>
         <v>382189</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19" s="22">
         <f t="shared" si="2"/>
         <v>1081390</v>
       </c>
-      <c r="R19" s="24">
+      <c r="R19" s="22">
         <f t="shared" si="2"/>
         <v>4609826</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="22">
         <f t="shared" ref="B21:R21" si="3">B10-B19</f>
         <v>20625.656000000075</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <f t="shared" si="3"/>
         <v>676515.02020000014</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="22">
         <f t="shared" si="3"/>
         <v>453318.01390000014</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <f t="shared" si="3"/>
         <v>1150458.6901000002</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="22">
         <f t="shared" si="3"/>
         <v>311361.35910000012</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="22">
         <f t="shared" si="3"/>
         <v>608964.5175999999</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="22">
         <f t="shared" si="3"/>
         <v>593305.92520000017</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="22">
         <f t="shared" si="3"/>
         <v>1513631.8019000003</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="22">
         <f t="shared" si="3"/>
         <v>659725.53630000027</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="22">
         <f t="shared" si="3"/>
         <v>440483.89470000018</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="22">
         <f t="shared" si="3"/>
         <v>393017.75260000001</v>
       </c>
-      <c r="M21" s="24">
+      <c r="M21" s="22">
         <f t="shared" si="3"/>
         <v>1493227.1836000001</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="22">
         <f t="shared" si="3"/>
         <v>267404.56870000006</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="22">
         <f t="shared" si="3"/>
         <v>217530.63520000014</v>
       </c>
-      <c r="P21" s="24">
+      <c r="P21" s="22">
         <f t="shared" si="3"/>
         <v>140431.60240000009</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21" s="22">
         <f t="shared" si="3"/>
         <v>625366.80630000029</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="22">
         <f t="shared" si="3"/>
         <v>4782684.4819000009</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
     </row>
     <row r="23" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
     </row>
     <row r="24" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="22">
         <v>86431</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <v>49816</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="22">
         <v>118328</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="22">
         <f>SUM(B24:D24)</f>
         <v>254575</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="22">
         <v>79272</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="22">
         <v>106695</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="22">
         <v>118283</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="22">
         <f>SUM(F24:H24)</f>
         <v>304250</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="22">
         <v>128103</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="22">
         <v>44604</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="22">
         <v>41412</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="22">
         <f>SUM(J24:L24)</f>
         <v>214119</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="22">
         <v>121117</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="22">
         <v>105837</v>
       </c>
-      <c r="P24" s="24">
+      <c r="P24" s="22">
         <v>32335</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24" s="22">
         <f>SUM(N24:P24)</f>
         <v>259289</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24" s="22">
         <f>E24+I24+M24+Q24</f>
         <v>1032233</v>
       </c>
     </row>
     <row r="25" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="22">
         <v>49931</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>69818</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="22">
         <v>32928</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="22">
         <f>SUM(B25:D25)</f>
         <v>152677</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <v>32873</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <v>71297</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="22">
         <v>140926</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="22">
         <f>SUM(F25:H25)</f>
         <v>245096</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="22">
         <v>80517</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="22">
         <v>86227</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="22">
         <v>88195</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="22">
         <f>SUM(J25:L25)</f>
         <v>254939</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="22">
         <v>66346</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="22">
         <v>114413</v>
       </c>
-      <c r="P25" s="24">
+      <c r="P25" s="22">
         <v>50721</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25" s="22">
         <f>SUM(N25:P25)</f>
         <v>231480</v>
       </c>
-      <c r="R25" s="24">
+      <c r="R25" s="22">
         <f>E25+I25+M25+Q25</f>
         <v>884192</v>
       </c>
     </row>
     <row r="26" spans="1:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="25">
         <v>55311</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="25">
         <v>146121</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="25">
         <v>145170</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="25">
         <f>SUM(B26:D26)</f>
         <v>346602</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="25">
         <v>45388</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="25">
         <v>146819</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="25">
         <v>82386</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="25">
         <f>SUM(F26:H26)</f>
         <v>274593</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="25">
         <v>141368</v>
       </c>
-      <c r="K26" s="27">
+      <c r="K26" s="25">
         <v>147847</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="25">
         <v>71146</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="25">
         <f>SUM(J26:L26)</f>
         <v>360361</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="25">
         <v>108964</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="25">
         <v>48101</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="25">
         <v>131346</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q26" s="25">
         <f>SUM(N26:P26)</f>
         <v>288411</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="25">
         <f>E26+I26+M26+Q26</f>
         <v>1269967</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="22">
         <f t="shared" ref="B27:R27" si="4">SUM(B24:B26)</f>
         <v>191673</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <f t="shared" si="4"/>
         <v>265755</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="22">
         <f t="shared" si="4"/>
         <v>296426</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="22">
         <f t="shared" si="4"/>
         <v>753854</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="22">
         <f t="shared" si="4"/>
         <v>157533</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="22">
         <f t="shared" si="4"/>
         <v>324811</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="22">
         <f t="shared" si="4"/>
         <v>341595</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="22">
         <f t="shared" si="4"/>
         <v>823939</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="22">
         <f t="shared" si="4"/>
         <v>349988</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="22">
         <f t="shared" si="4"/>
         <v>278678</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="22">
         <f t="shared" si="4"/>
         <v>200753</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="22">
         <f t="shared" si="4"/>
         <v>829419</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="22">
         <f t="shared" si="4"/>
         <v>296427</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O27" s="22">
         <f t="shared" si="4"/>
         <v>268351</v>
       </c>
-      <c r="P27" s="24">
+      <c r="P27" s="22">
         <f t="shared" si="4"/>
         <v>214402</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q27" s="22">
         <f t="shared" si="4"/>
         <v>779180</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R27" s="22">
         <f t="shared" si="4"/>
         <v>3186392</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
     </row>
     <row r="29" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="28">
         <f t="shared" ref="B29:R29" si="5">B21-B27</f>
         <v>-171047.34399999992</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="28">
         <f t="shared" si="5"/>
         <v>410760.02020000014</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="28">
         <f t="shared" si="5"/>
         <v>156892.01390000014</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="28">
         <f t="shared" si="5"/>
         <v>396604.69010000024</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="28">
         <f t="shared" si="5"/>
         <v>153828.35910000012</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="28">
         <f t="shared" si="5"/>
         <v>284153.5175999999</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="28">
         <f t="shared" si="5"/>
         <v>251710.92520000017</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="28">
         <f t="shared" si="5"/>
         <v>689692.80190000031</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="28">
         <f t="shared" si="5"/>
         <v>309737.53630000027</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="28">
         <f t="shared" si="5"/>
         <v>161805.89470000018</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="28">
         <f t="shared" si="5"/>
         <v>192264.75260000001</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="28">
         <f t="shared" si="5"/>
         <v>663808.18360000011</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="28">
         <f t="shared" si="5"/>
         <v>-29022.431299999938</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="28">
         <f t="shared" si="5"/>
         <v>-50820.364799999865</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="28">
         <f t="shared" si="5"/>
         <v>-73970.397599999909</v>
       </c>
-      <c r="Q29" s="30">
+      <c r="Q29" s="28">
         <f t="shared" si="5"/>
         <v>-153813.19369999971</v>
       </c>
-      <c r="R29" s="30">
+      <c r="R29" s="28">
         <f t="shared" si="5"/>
         <v>1596292.4819000009</v>
       </c>

--- a/excel/excel-training/Level 1/Sales Transactions - BEGIN.xlsx
+++ b/excel/excel-training/Level 1/Sales Transactions - BEGIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49328F2-71DC-A64B-BE1D-461EB6A5C9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF41327-B6A5-2643-9503-0B0D887E829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="708" activeTab="5" xr2:uid="{45683F96-23D5-413F-8462-E8AA2DA3B71A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="708" activeTab="7" xr2:uid="{45683F96-23D5-413F-8462-E8AA2DA3B71A}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="21" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Fill Handle" sheetId="18" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Data!$B$3:$F$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Data!$A$3:$F$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Fill Handle'!$A$3:$D$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Formulas!$A$3:$D$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Number Formatting'!#REF!</definedName>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId13"/>
+    <pivotCache cacheId="5" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -500,11 +500,11 @@
     <t>0154</t>
   </si>
   <si>
+    <t>&lt;- Merge &amp; Centre OR Format Cells -&gt; alignment -&gt; Centre across selection</t>
+  </si>
+  <si>
     <t>option + return
-(shortcut to new-line) Wrap Text is applied automatically</t>
-  </si>
-  <si>
-    <t>&lt;- Merge &amp; Centre OR Format Cells -&gt; alignment -&gt; Centre across selection</t>
+(shortcut to line-breaks) Wrap Text is applied automatically</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -915,21 +915,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -972,6 +960,18 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="43" fontId="1" fillId="14" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent2" xfId="9" builtinId="36"/>
@@ -2227,7 +2227,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jon Acampora" refreshedDate="43279.484190162038" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="80" xr:uid="{94E15762-4A86-4730-AAB9-2F311B334BA0}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B3:F83" sheet="Data"/>
+    <worksheetSource ref="A3:F83" sheet="Data"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Order Date" numFmtId="164">
@@ -3028,7 +3028,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF19216D-CE22-4E59-A34D-6FD36082420E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF19216D-CE22-4E59-A34D-6FD36082420E}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="164" showAll="0"/>
@@ -4479,31 +4479,31 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="53" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4772,32 +4772,32 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59">
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55">
         <f t="shared" ref="D12:I12" si="2">SUM(D4:D11)</f>
         <v>4190</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="56">
         <f t="shared" si="2"/>
         <v>375.01770000000005</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="57">
         <f t="shared" si="2"/>
         <v>36804</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12" s="57">
         <f t="shared" si="2"/>
         <v>39748.32</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="57">
         <f t="shared" si="2"/>
         <v>40484.400000000001</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="59">
         <f t="shared" si="2"/>
         <v>34963.800000000003</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="A10" t="s">
         <v>133</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="47">
         <v>12548.6</v>
       </c>
     </row>
@@ -5007,10 +5007,10 @@
       <c r="A12" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="48">
         <v>12548.6</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="48" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
       <c r="A13" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="49">
         <v>37658</v>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="50">
         <v>0.1</v>
       </c>
     </row>
@@ -5034,10 +5034,10 @@
       <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="52" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5056,13 +5056,13 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="220" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
@@ -5071,12 +5071,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="66"/>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5091,7 +5091,7 @@
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="60">
         <v>1234.56</v>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="61">
         <v>0.105</v>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
       <c r="A7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="62">
         <v>43101</v>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       <c r="A8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="63">
         <v>1234.56</v>
       </c>
     </row>
@@ -5126,16 +5126,16 @@
       <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="64" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="B13" s="68" t="s">
-        <v>145</v>
+      <c r="B13" s="64" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5165,26 +5165,26 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71" t="s">
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71" t="s">
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
@@ -6085,7 +6085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E959296A-0FF5-4D9F-BCAD-3645E1AE47FD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -6096,7 +6096,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="68" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
       <c r="A4" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="70">
         <v>1000</v>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       <c r="A5" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="75">
+      <c r="B5" s="71">
         <v>1245.5</v>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       <c r="A6" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="69">
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
@@ -6143,7 +6143,9 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6165,30 +6167,30 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
       <c r="R3" s="31">
         <v>2017</v>
       </c>
@@ -7464,16 +7466,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -7483,10 +7488,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>3</v>
@@ -7505,11 +7510,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43101</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -7528,11 +7533,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43101</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -7551,11 +7556,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43101</v>
       </c>
       <c r="D6" s="6">
         <v>30</v>
@@ -7571,11 +7576,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B7" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43101</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -7594,11 +7599,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43101</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -7617,11 +7622,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43102</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -7640,11 +7645,11 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43102</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -7663,11 +7668,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43103</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -7686,11 +7691,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43103</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -7709,11 +7714,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43104</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -7732,11 +7737,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B14" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43104</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -7755,11 +7760,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43104</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -7778,11 +7783,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43104</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -7801,11 +7806,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2">
+        <v>43105</v>
+      </c>
+      <c r="B17" t="s">
         <v>42</v>
-      </c>
-      <c r="B17" s="2">
-        <v>43105</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -7824,11 +7829,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43106</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -7847,11 +7852,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" s="2">
-        <v>43106</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -7870,11 +7875,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="2">
-        <v>43106</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -7893,11 +7898,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2">
+        <v>43106</v>
+      </c>
+      <c r="B21" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" s="2">
-        <v>43106</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -7916,11 +7921,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2">
+        <v>43107</v>
+      </c>
+      <c r="B22" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" s="2">
-        <v>43107</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -7939,11 +7944,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B23" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="2">
-        <v>43108</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -7962,11 +7967,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B24" t="s">
         <v>41</v>
-      </c>
-      <c r="B24" s="2">
-        <v>43108</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -7985,11 +7990,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
-      </c>
-      <c r="B25" s="2">
-        <v>43108</v>
       </c>
       <c r="D25" s="6">
         <v>44</v>
@@ -8005,11 +8010,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" s="2">
-        <v>43108</v>
       </c>
       <c r="D26" s="6">
         <v>43</v>
@@ -8025,11 +8030,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B27" t="s">
         <v>43</v>
-      </c>
-      <c r="B27" s="2">
-        <v>43108</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -8048,11 +8053,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B28" t="s">
         <v>42</v>
-      </c>
-      <c r="B28" s="2">
-        <v>43109</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -8071,11 +8076,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B29" t="s">
         <v>49</v>
-      </c>
-      <c r="B29" s="2">
-        <v>43109</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
@@ -8094,11 +8099,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B30" t="s">
         <v>46</v>
-      </c>
-      <c r="B30" s="2">
-        <v>43110</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -8117,11 +8122,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B31" t="s">
         <v>42</v>
-      </c>
-      <c r="B31" s="2">
-        <v>43112</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -8140,11 +8145,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B32" t="s">
         <v>50</v>
-      </c>
-      <c r="B32" s="2">
-        <v>43112</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -8163,11 +8168,11 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B33" t="s">
         <v>46</v>
-      </c>
-      <c r="B33" s="2">
-        <v>43112</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -8186,11 +8191,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B34" t="s">
         <v>51</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43112</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -8209,11 +8214,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="2">
+        <v>43113</v>
+      </c>
+      <c r="B35" t="s">
         <v>52</v>
-      </c>
-      <c r="B35" s="2">
-        <v>43113</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
@@ -8232,11 +8237,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="2">
+        <v>43114</v>
+      </c>
+      <c r="B36" t="s">
         <v>47</v>
-      </c>
-      <c r="B36" s="2">
-        <v>43114</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
@@ -8255,11 +8260,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B37" t="s">
         <v>46</v>
-      </c>
-      <c r="B37" s="2">
-        <v>43115</v>
       </c>
       <c r="D37" s="6">
         <v>41</v>
@@ -8275,11 +8280,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B38" t="s">
         <v>53</v>
-      </c>
-      <c r="B38" s="2">
-        <v>43115</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -8298,11 +8303,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B39" t="s">
         <v>43</v>
-      </c>
-      <c r="B39" s="2">
-        <v>43116</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -8321,11 +8326,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B40" t="s">
         <v>41</v>
-      </c>
-      <c r="B40" s="2">
-        <v>43116</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -8344,11 +8349,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B41" t="s">
         <v>49</v>
-      </c>
-      <c r="B41" s="2">
-        <v>43116</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -8367,11 +8372,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B42" t="s">
         <v>53</v>
-      </c>
-      <c r="B42" s="2">
-        <v>43117</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
@@ -8390,11 +8395,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B43" t="s">
         <v>52</v>
-      </c>
-      <c r="B43" s="2">
-        <v>43117</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
@@ -8413,11 +8418,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B44" t="s">
         <v>39</v>
-      </c>
-      <c r="B44" s="2">
-        <v>43117</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
@@ -8436,11 +8441,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B45" t="s">
         <v>46</v>
-      </c>
-      <c r="B45" s="2">
-        <v>43118</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
@@ -8459,11 +8464,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B46" t="s">
         <v>43</v>
-      </c>
-      <c r="B46" s="2">
-        <v>43119</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -8482,11 +8487,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B47" t="s">
         <v>48</v>
-      </c>
-      <c r="B47" s="2">
-        <v>43121</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -8505,11 +8510,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B48" t="s">
         <v>45</v>
-      </c>
-      <c r="B48" s="2">
-        <v>43121</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -8528,11 +8533,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B49" t="s">
         <v>40</v>
-      </c>
-      <c r="B49" s="2">
-        <v>43121</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
@@ -8551,11 +8556,11 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B50" t="s">
         <v>51</v>
-      </c>
-      <c r="B50" s="2">
-        <v>43121</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
@@ -8574,11 +8579,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B51" t="s">
         <v>49</v>
-      </c>
-      <c r="B51" s="2">
-        <v>43121</v>
       </c>
       <c r="D51" s="6">
         <v>18</v>
@@ -8594,11 +8599,11 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B52" t="s">
         <v>52</v>
-      </c>
-      <c r="B52" s="2">
-        <v>43121</v>
       </c>
       <c r="C52" t="s">
         <v>22</v>
@@ -8617,11 +8622,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="2">
+        <v>43121</v>
+      </c>
+      <c r="B53" t="s">
         <v>52</v>
-      </c>
-      <c r="B53" s="2">
-        <v>43121</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -8640,11 +8645,11 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B54" t="s">
         <v>41</v>
-      </c>
-      <c r="B54" s="2">
-        <v>43122</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -8663,11 +8668,11 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B55" t="s">
         <v>40</v>
-      </c>
-      <c r="B55" s="2">
-        <v>43122</v>
       </c>
       <c r="C55" t="s">
         <v>12</v>
@@ -8686,11 +8691,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B56" t="s">
         <v>41</v>
-      </c>
-      <c r="B56" s="2">
-        <v>43123</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -8709,11 +8714,11 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B57" t="s">
         <v>44</v>
-      </c>
-      <c r="B57" s="2">
-        <v>43123</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -8732,11 +8737,11 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B58" t="s">
         <v>39</v>
-      </c>
-      <c r="B58" s="2">
-        <v>43124</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
@@ -8755,11 +8760,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B59" t="s">
         <v>47</v>
-      </c>
-      <c r="B59" s="2">
-        <v>43125</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -8778,11 +8783,11 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B60" t="s">
         <v>39</v>
-      </c>
-      <c r="B60" s="2">
-        <v>43125</v>
       </c>
       <c r="C60" t="s">
         <v>31</v>
@@ -8801,11 +8806,11 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B61" t="s">
         <v>43</v>
-      </c>
-      <c r="B61" s="2">
-        <v>43125</v>
       </c>
       <c r="D61" s="6">
         <v>33</v>
@@ -8821,11 +8826,11 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B62" t="s">
         <v>53</v>
-      </c>
-      <c r="B62" s="2">
-        <v>43125</v>
       </c>
       <c r="C62" t="s">
         <v>37</v>
@@ -8844,11 +8849,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B63" t="s">
         <v>42</v>
-      </c>
-      <c r="B63" s="2">
-        <v>43126</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
@@ -8867,11 +8872,11 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B64" t="s">
         <v>41</v>
-      </c>
-      <c r="B64" s="2">
-        <v>43126</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -8890,11 +8895,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B65" t="s">
         <v>39</v>
-      </c>
-      <c r="B65" s="2">
-        <v>43127</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
@@ -8913,11 +8918,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B66" t="s">
         <v>47</v>
-      </c>
-      <c r="B66" s="2">
-        <v>43127</v>
       </c>
       <c r="C66" t="s">
         <v>25</v>
@@ -8936,11 +8941,11 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="2">
+        <v>43127</v>
+      </c>
+      <c r="B67" t="s">
         <v>50</v>
-      </c>
-      <c r="B67" s="2">
-        <v>43127</v>
       </c>
       <c r="C67" t="s">
         <v>24</v>
@@ -8959,11 +8964,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B68" t="s">
         <v>49</v>
-      </c>
-      <c r="B68" s="2">
-        <v>43128</v>
       </c>
       <c r="C68" t="s">
         <v>38</v>
@@ -8982,11 +8987,11 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B69" t="s">
         <v>51</v>
-      </c>
-      <c r="B69" s="2">
-        <v>43128</v>
       </c>
       <c r="C69" t="s">
         <v>25</v>
@@ -9005,11 +9010,11 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="2">
+        <v>43128</v>
+      </c>
+      <c r="B70" t="s">
         <v>39</v>
-      </c>
-      <c r="B70" s="2">
-        <v>43128</v>
       </c>
       <c r="D70" s="6">
         <v>19</v>
@@ -9025,11 +9030,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B71" t="s">
         <v>53</v>
-      </c>
-      <c r="B71" s="2">
-        <v>43129</v>
       </c>
       <c r="C71" t="s">
         <v>12</v>
@@ -9048,11 +9053,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B72" t="s">
         <v>40</v>
-      </c>
-      <c r="B72" s="2">
-        <v>43129</v>
       </c>
       <c r="C72" t="s">
         <v>25</v>
@@ -9071,11 +9076,11 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B73" t="s">
         <v>49</v>
-      </c>
-      <c r="B73" s="2">
-        <v>43130</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -9094,11 +9099,11 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B74" t="s">
         <v>42</v>
-      </c>
-      <c r="B74" s="2">
-        <v>43130</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -9117,11 +9122,11 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B75" t="s">
         <v>46</v>
-      </c>
-      <c r="B75" s="2">
-        <v>43130</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -9140,11 +9145,11 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B76" t="s">
         <v>39</v>
-      </c>
-      <c r="B76" s="2">
-        <v>43130</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -9163,11 +9168,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B77" t="s">
         <v>52</v>
-      </c>
-      <c r="B77" s="2">
-        <v>43131</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -9186,11 +9191,11 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B78" t="s">
         <v>45</v>
-      </c>
-      <c r="B78" s="2">
-        <v>43131</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -9209,11 +9214,11 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B79" t="s">
         <v>51</v>
-      </c>
-      <c r="B79" s="2">
-        <v>43131</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -9232,11 +9237,11 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B80" t="s">
         <v>53</v>
-      </c>
-      <c r="B80" s="2">
-        <v>43131</v>
       </c>
       <c r="D80" s="6">
         <v>37</v>
@@ -9252,11 +9257,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B81" t="s">
         <v>39</v>
-      </c>
-      <c r="B81" s="2">
-        <v>43131</v>
       </c>
       <c r="C81" t="s">
         <v>32</v>
@@ -9275,11 +9280,11 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B82" t="s">
         <v>44</v>
-      </c>
-      <c r="B82" s="2">
-        <v>43131</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
@@ -9298,11 +9303,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B83" t="s">
         <v>39</v>
-      </c>
-      <c r="B83" s="2">
-        <v>43131</v>
       </c>
       <c r="C83" t="s">
         <v>11</v>
@@ -9331,7 +9336,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="139" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/excel/excel-training/Level 1/Sales Transactions - BEGIN.xlsx
+++ b/excel/excel-training/Level 1/Sales Transactions - BEGIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF41327-B6A5-2643-9503-0B0D887E829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2F4E65-40A4-394C-ABD0-79CD9F94C5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="708" activeTab="7" xr2:uid="{45683F96-23D5-413F-8462-E8AA2DA3B71A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="708" activeTab="11" xr2:uid="{45683F96-23D5-413F-8462-E8AA2DA3B71A}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="21" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Data!$A$3:$F$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Fill Handle'!$A$3:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Fill Handle'!$A$3:$E$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Formulas!$A$3:$D$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Number Formatting'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Transpose!#REF!</definedName>
@@ -36,7 +36,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId13"/>
+    <pivotCache cacheId="6" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="149">
   <si>
     <t>Order Date</t>
   </si>
@@ -505,6 +505,12 @@
   <si>
     <t>option + return
 (shortcut to line-breaks) Wrap Text is applied automatically</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
   </si>
 </sst>
 </file>
@@ -839,7 +845,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -972,6 +978,8 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="60% - Accent2" xfId="9" builtinId="36"/>
@@ -3028,7 +3036,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF19216D-CE22-4E59-A34D-6FD36082420E}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FF19216D-CE22-4E59-A34D-6FD36082420E}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="164" showAll="0"/>
@@ -3961,9 +3969,11 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2EBB12-3211-41E2-B172-52EC80660AD7}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3971,14 +3981,17 @@
     <col min="2" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>115</v>
       </c>
@@ -3994,8 +4007,26 @@
       <c r="E3" s="34" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
@@ -4011,8 +4042,26 @@
       <c r="E4" s="35">
         <v>423.43567500000012</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="33">
+        <v>704.21623</v>
+      </c>
+      <c r="I4" s="33">
+        <v>570.20949999999993</v>
+      </c>
+      <c r="J4" s="33">
+        <v>2002.5913000000003</v>
+      </c>
+      <c r="K4" s="33">
+        <v>203.48</v>
+      </c>
+      <c r="L4" s="33">
+        <v>872.93200000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -4028,8 +4077,26 @@
       <c r="E5" s="35">
         <v>460.06344000000013</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="33">
+        <v>325.71975000000003</v>
+      </c>
+      <c r="I5" s="33">
+        <v>575.0793000000001</v>
+      </c>
+      <c r="J5" s="33">
+        <v>869.50599999999997</v>
+      </c>
+      <c r="K5" s="33">
+        <v>636.11495000000002</v>
+      </c>
+      <c r="L5" s="33">
+        <v>431.44300000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
@@ -4045,8 +4112,26 @@
       <c r="E6" s="35">
         <v>5564.8384000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="35">
+        <v>5704.1514630000001</v>
+      </c>
+      <c r="I6" s="35">
+        <v>5188.9064499999995</v>
+      </c>
+      <c r="J6" s="35">
+        <v>2403.1095600000003</v>
+      </c>
+      <c r="K6" s="35">
+        <v>345.916</v>
+      </c>
+      <c r="L6" s="35">
+        <v>960.22520000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>50</v>
       </c>
@@ -4062,8 +4147,26 @@
       <c r="E7" s="35">
         <v>4325.5816599999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="35">
+        <v>423.43567500000012</v>
+      </c>
+      <c r="I7" s="35">
+        <v>460.06344000000013</v>
+      </c>
+      <c r="J7" s="35">
+        <v>5564.8384000000005</v>
+      </c>
+      <c r="K7" s="35">
+        <v>4325.5816599999998</v>
+      </c>
+      <c r="L7" s="35">
+        <v>3537.8326000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -4237,28 +4340,29 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BAF412A-3DA2-4D5A-B0CF-10EA47E3B039}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -4266,173 +4370,236 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43101</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>970</v>
       </c>
-      <c r="E4" s="14">
+      <c r="F4" s="14">
         <v>93.702000000000012</v>
       </c>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="32">
+        <f>D4*E4</f>
+        <v>8924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43101</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
         <v>46</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>190</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F5" s="6">
         <v>89.14800000000001</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="G5" s="32">
+        <f t="shared" ref="G5:G11" si="0">D5*E5</f>
+        <v>8740</v>
+      </c>
       <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43101</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>470</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F6" s="6">
         <v>41.510399999999997</v>
       </c>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="32">
+        <f t="shared" si="0"/>
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>20</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="G7" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43101</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6">
         <v>2.99</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>900</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>27.717300000000005</v>
       </c>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="32">
+        <f t="shared" si="0"/>
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43102</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
         <v>14</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>100</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>13.86</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="G9" s="32">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
       <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43102</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>810</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>62.83</v>
       </c>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="32">
+        <f t="shared" si="0"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43103</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
         <v>3.5</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="5">
         <v>750</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>26.25</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="G11" s="32">
+        <f t="shared" si="0"/>
+        <v>2625</v>
+      </c>
       <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>60</v>
+      </c>
+      <c r="E12" s="77">
+        <f>SUM(E4:E11)</f>
+        <v>4190</v>
+      </c>
+      <c r="F12" s="77">
+        <f t="shared" ref="F12:G12" si="1">SUM(F4:F11)</f>
+        <v>375.01770000000005</v>
+      </c>
+      <c r="G12" s="77">
+        <f t="shared" si="1"/>
+        <v>36804</v>
       </c>
     </row>
   </sheetData>
@@ -4444,10 +4611,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC72F5F-E657-46E3-8B37-6CE1A50A9400}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="179" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4459,15 +4626,15 @@
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G2" s="12">
         <v>0.08</v>
       </c>
@@ -4477,8 +4644,11 @@
       <c r="I2" s="12">
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
@@ -4506,8 +4676,11 @@
       <c r="I3" s="53" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43101</v>
       </c>
@@ -4539,8 +4712,12 @@
         <f>$F4*(1+I$2)</f>
         <v>8477.7999999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="45">
+        <f>$F4*(1+J$2)</f>
+        <v>10262.599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43101</v>
       </c>
@@ -4572,8 +4749,12 @@
         <f t="shared" si="1"/>
         <v>8303</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="45">
+        <f>$F5*(1+J$2)</f>
+        <v>10051</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43101</v>
       </c>
@@ -4605,8 +4786,12 @@
         <f t="shared" si="1"/>
         <v>4107.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="45">
+        <f>$F6*(1+J$2)</f>
+        <v>4972.5999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43101</v>
       </c>
@@ -4638,8 +4823,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="45">
+        <f>$F7*(1+J$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43101</v>
       </c>
@@ -4671,8 +4860,12 @@
         <f t="shared" si="1"/>
         <v>2556.4499999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="45">
+        <f>$F8*(1+J$2)</f>
+        <v>3094.6499999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43102</v>
       </c>
@@ -4704,8 +4897,12 @@
         <f t="shared" si="1"/>
         <v>1330</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="45">
+        <f>$F9*(1+J$2)</f>
+        <v>1609.9999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43102</v>
       </c>
@@ -4737,8 +4934,12 @@
         <f t="shared" si="1"/>
         <v>7695</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="45">
+        <f>$F10*(1+J$2)</f>
+        <v>9315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43103</v>
       </c>
@@ -4770,13 +4971,17 @@
         <f t="shared" si="1"/>
         <v>2493.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="45">
+        <f>$F11*(1+J$2)</f>
+        <v>3018.7499999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="55">
         <f t="shared" ref="D12:I12" si="2">SUM(D4:D11)</f>
         <v>4190</v>
@@ -4801,9 +5006,13 @@
         <f t="shared" si="2"/>
         <v>34963.800000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="59">
+        <f t="shared" ref="J12" si="3">SUM(J4:J11)</f>
+        <v>42324.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>139</v>
       </c>
@@ -4812,27 +5021,31 @@
         <v>523.75</v>
       </c>
       <c r="E14" s="45">
-        <f t="shared" ref="E14:I14" si="3">AVERAGE(E4:E11)</f>
+        <f t="shared" ref="E14:I14" si="4">AVERAGE(E4:E11)</f>
         <v>46.877212500000006</v>
       </c>
       <c r="F14" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4600.5</v>
       </c>
       <c r="G14" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4968.54</v>
       </c>
       <c r="H14" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5060.55</v>
       </c>
       <c r="I14" s="45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4370.4750000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="45">
+        <f>AVERAGE(J4:J11)</f>
+        <v>5290.5749999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>140</v>
       </c>
@@ -4841,27 +5054,31 @@
         <v>8</v>
       </c>
       <c r="E15" s="45">
-        <f t="shared" ref="E15:I15" si="4">COUNT(E4:E11)</f>
+        <f t="shared" ref="E15:I15" si="5">COUNT(E4:E11)</f>
         <v>8</v>
       </c>
       <c r="F15" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G15" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="H15" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="I15" s="45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="45">
+        <f>COUNT(J4:J11)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>141</v>
       </c>
@@ -4870,27 +5087,31 @@
         <v>970</v>
       </c>
       <c r="E16" s="45">
-        <f t="shared" ref="E16:I16" si="5">MAX(E4:E11)</f>
+        <f t="shared" ref="E16:I16" si="6">MAX(E4:E11)</f>
         <v>93.702000000000012</v>
       </c>
       <c r="F16" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8924</v>
       </c>
       <c r="G16" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9637.92</v>
       </c>
       <c r="H16" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9816.4000000000015</v>
       </c>
       <c r="I16" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8477.7999999999993</v>
       </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="45">
+        <f>MAX(J4:J11)</f>
+        <v>10262.599999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>142</v>
       </c>
@@ -4899,27 +5120,31 @@
         <v>0</v>
       </c>
       <c r="E17" s="45">
-        <f t="shared" ref="E17:I17" si="6">MIN(E4:E11)</f>
+        <f t="shared" ref="E17:I17" si="7">MIN(E4:E11)</f>
         <v>13.86</v>
       </c>
       <c r="F17" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G17" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H17" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I17" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="45">
+        <f>MIN(J4:J11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
     </row>
   </sheetData>
@@ -4932,8 +5157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B793B8B-0FEF-4783-AB7B-176BFE98F038}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A2" zoomScale="186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5055,8 +5280,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="220" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A2" zoomScale="220" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5149,7 +5374,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6086,7 +6311,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6144,7 +6369,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -7466,8 +7691,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7486,6 +7711,14 @@
         <v>57</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>0</v>
@@ -7520,7 +7753,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="6">
-        <v>103.70200000000001</v>
+        <v>113.70200000000001</v>
       </c>
       <c r="E4" s="3">
         <v>9.1999999999999993</v>
@@ -7529,7 +7762,7 @@
         <v>970</v>
       </c>
       <c r="G4" s="3">
-        <v>-75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7543,7 +7776,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="6">
-        <v>51.510399999999997</v>
+        <v>61.510399999999997</v>
       </c>
       <c r="E5" s="3">
         <v>9.1999999999999993</v>
@@ -7552,7 +7785,7 @@
         <v>470</v>
       </c>
       <c r="G5" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7563,7 +7796,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -7586,7 +7819,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="6">
-        <v>99.14800000000001</v>
+        <v>109.14800000000001</v>
       </c>
       <c r="E7" s="3">
         <v>46</v>
@@ -7595,7 +7828,7 @@
         <v>190</v>
       </c>
       <c r="G7" s="3">
-        <v>-25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7609,7 +7842,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="6">
-        <v>37.717300000000009</v>
+        <v>47.717300000000009</v>
       </c>
       <c r="E8" s="4">
         <v>2.99</v>
@@ -7618,7 +7851,7 @@
         <v>900</v>
       </c>
       <c r="G8" s="3">
-        <v>-25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7632,7 +7865,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="6">
-        <v>23.86</v>
+        <v>33.86</v>
       </c>
       <c r="E9" s="3">
         <v>14</v>
@@ -7641,7 +7874,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -7655,7 +7888,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="6">
-        <v>72.83</v>
+        <v>82.83</v>
       </c>
       <c r="E10" s="3">
         <v>10</v>
@@ -7664,7 +7897,7 @@
         <v>810</v>
       </c>
       <c r="G10" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -7678,7 +7911,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="6">
-        <v>36.25</v>
+        <v>46.25</v>
       </c>
       <c r="E11" s="3">
         <v>3.5</v>
@@ -7701,7 +7934,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="6">
-        <v>375.14800000000002</v>
+        <v>385.14800000000002</v>
       </c>
       <c r="E12" s="3">
         <v>46</v>
@@ -7710,7 +7943,7 @@
         <v>920</v>
       </c>
       <c r="G12" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -7724,7 +7957,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="6">
-        <v>71.387200000000007</v>
+        <v>81.387200000000007</v>
       </c>
       <c r="E13" s="3">
         <v>34.799999999999997</v>
@@ -7747,7 +7980,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="6">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E14" s="3">
         <v>40</v>
@@ -7770,7 +8003,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="6">
-        <v>46.008800000000001</v>
+        <v>56.008800000000001</v>
       </c>
       <c r="E15" s="4">
         <v>9.1999999999999993</v>
@@ -7779,7 +8012,7 @@
         <v>380</v>
       </c>
       <c r="G15" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7793,7 +8026,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="6">
-        <v>89.340799999999987</v>
+        <v>99.340799999999987</v>
       </c>
       <c r="E16" s="4">
         <v>9.1999999999999993</v>
@@ -7816,7 +8049,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="6">
-        <v>160.47999999999999</v>
+        <v>170.48</v>
       </c>
       <c r="E17" s="3">
         <v>22</v>
@@ -7839,7 +8072,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="6">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E18" s="3">
         <v>40</v>
@@ -7848,7 +8081,7 @@
         <v>250</v>
       </c>
       <c r="G18" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -7862,7 +8095,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="6">
-        <v>328.15999999999997</v>
+        <v>338.15999999999997</v>
       </c>
       <c r="E19" s="3">
         <v>40</v>
@@ -7885,7 +8118,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="6">
-        <v>132.39999999999998</v>
+        <v>142.39999999999998</v>
       </c>
       <c r="E20" s="3">
         <v>12.75</v>
@@ -7894,7 +8127,7 @@
         <v>1000</v>
       </c>
       <c r="G20" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -7908,7 +8141,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="6">
-        <v>143.12</v>
+        <v>153.12</v>
       </c>
       <c r="E21" s="4">
         <v>40</v>
@@ -7917,7 +8150,7 @@
         <v>320</v>
       </c>
       <c r="G21" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -7931,7 +8164,7 @@
         <v>38</v>
       </c>
       <c r="D22" s="6">
-        <v>128.65600000000001</v>
+        <v>138.65600000000001</v>
       </c>
       <c r="E22" s="3">
         <v>18</v>
@@ -7940,7 +8173,7 @@
         <v>640</v>
       </c>
       <c r="G22" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -7954,7 +8187,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="6">
-        <v>265.14999999999998</v>
+        <v>275.14999999999998</v>
       </c>
       <c r="E23" s="3">
         <v>30</v>
@@ -7963,7 +8196,7 @@
         <v>810</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -7977,7 +8210,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="6">
-        <v>55.441000000000003</v>
+        <v>65.441000000000003</v>
       </c>
       <c r="E24" s="3">
         <v>12.75</v>
@@ -7986,7 +8219,7 @@
         <v>360</v>
       </c>
       <c r="G24" s="3">
-        <v>-75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -7997,7 +8230,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="6">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -8017,7 +8250,7 @@
         <v>48</v>
       </c>
       <c r="D26" s="6">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -8040,7 +8273,7 @@
         <v>35</v>
       </c>
       <c r="D27" s="6">
-        <v>203.01100000000002</v>
+        <v>213.01100000000002</v>
       </c>
       <c r="E27" s="3">
         <v>39</v>
@@ -8063,7 +8296,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="6">
-        <v>66.855999999999995</v>
+        <v>76.855999999999995</v>
       </c>
       <c r="E28" s="3">
         <v>9.1999999999999993</v>
@@ -8072,7 +8305,7 @@
         <v>600</v>
       </c>
       <c r="G28" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -8086,7 +8319,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="6">
-        <v>151.42600000000002</v>
+        <v>161.42600000000002</v>
       </c>
       <c r="E29" s="4">
         <v>18</v>
@@ -8095,7 +8328,7 @@
         <v>810</v>
       </c>
       <c r="G29" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -8109,7 +8342,7 @@
         <v>37</v>
       </c>
       <c r="D30" s="6">
-        <v>125.42999999999999</v>
+        <v>135.43</v>
       </c>
       <c r="E30" s="3">
         <v>14</v>
@@ -8118,7 +8351,7 @@
         <v>850</v>
       </c>
       <c r="G30" s="3">
-        <v>-25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -8132,7 +8365,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="6">
-        <v>230.5</v>
+        <v>240.5</v>
       </c>
       <c r="E31" s="3">
         <v>25</v>
@@ -8155,7 +8388,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="6">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E32" s="3">
         <v>10</v>
@@ -8164,7 +8397,7 @@
         <v>990</v>
       </c>
       <c r="G32" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -8178,7 +8411,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="6">
-        <v>53.783500000000004</v>
+        <v>63.783500000000004</v>
       </c>
       <c r="E33" s="3">
         <v>12.75</v>
@@ -8201,7 +8434,7 @@
         <v>23</v>
       </c>
       <c r="D34" s="6">
-        <v>174.15</v>
+        <v>184.15</v>
       </c>
       <c r="E34" s="3">
         <v>25</v>
@@ -8210,7 +8443,7 @@
         <v>240</v>
       </c>
       <c r="G34" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -8224,7 +8457,7 @@
         <v>19</v>
       </c>
       <c r="D35" s="6">
-        <v>249.12</v>
+        <v>259.12</v>
       </c>
       <c r="E35" s="3">
         <v>40</v>
@@ -8233,7 +8466,7 @@
         <v>290</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -8247,7 +8480,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="6">
-        <v>15.133830000000001</v>
+        <v>25.133830000000003</v>
       </c>
       <c r="E36" s="3">
         <v>2.99</v>
@@ -8267,7 +8500,7 @@
         <v>46</v>
       </c>
       <c r="D37" s="6">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
@@ -8290,7 +8523,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="6">
-        <v>26.6145</v>
+        <v>36.6145</v>
       </c>
       <c r="E38" s="4">
         <v>3.5</v>
@@ -8299,7 +8532,7 @@
         <v>470</v>
       </c>
       <c r="G38" s="3">
-        <v>-25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -8313,7 +8546,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="6">
-        <v>39.325000000000003</v>
+        <v>49.325000000000003</v>
       </c>
       <c r="E39" s="3">
         <v>12.75</v>
@@ -8322,7 +8555,7 @@
         <v>230</v>
       </c>
       <c r="G39" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -8336,7 +8569,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="6">
-        <v>92.875</v>
+        <v>102.875</v>
       </c>
       <c r="E40" s="3">
         <v>12.75</v>
@@ -8345,7 +8578,7 @@
         <v>670</v>
       </c>
       <c r="G40" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -8359,7 +8592,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="6">
-        <v>208.352</v>
+        <v>218.352</v>
       </c>
       <c r="E41" s="4">
         <v>46</v>
@@ -8368,7 +8601,7 @@
         <v>440</v>
       </c>
       <c r="G41" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -8382,7 +8615,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="6">
-        <v>30.16</v>
+        <v>40.159999999999997</v>
       </c>
       <c r="E42" s="3">
         <v>3.5</v>
@@ -8391,7 +8624,7 @@
         <v>600</v>
       </c>
       <c r="G42" s="3">
-        <v>-75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -8405,7 +8638,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="6">
-        <v>100.25</v>
+        <v>110.25</v>
       </c>
       <c r="E43" s="3">
         <v>10</v>
@@ -8414,7 +8647,7 @@
         <v>490</v>
       </c>
       <c r="G43" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -8428,7 +8661,7 @@
         <v>36</v>
       </c>
       <c r="D44" s="6">
-        <v>185.02800000000002</v>
+        <v>195.02800000000002</v>
       </c>
       <c r="E44" s="3">
         <v>38</v>
@@ -8437,7 +8670,7 @@
         <v>330</v>
       </c>
       <c r="G44" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -8451,7 +8684,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="6">
-        <v>235.62100000000001</v>
+        <v>245.62100000000001</v>
       </c>
       <c r="E45" s="3">
         <v>53</v>
@@ -8460,7 +8693,7 @@
         <v>680</v>
       </c>
       <c r="G45" s="3">
-        <v>-75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -8474,7 +8707,7 @@
         <v>16</v>
       </c>
       <c r="D46" s="6">
-        <v>132.24700000000001</v>
+        <v>142.24700000000001</v>
       </c>
       <c r="E46" s="4">
         <v>12.75</v>
@@ -8497,7 +8730,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="6">
-        <v>289.68</v>
+        <v>299.68</v>
       </c>
       <c r="E47" s="3">
         <v>46</v>
@@ -8506,7 +8739,7 @@
         <v>640</v>
       </c>
       <c r="G47" s="3">
-        <v>-75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -8520,7 +8753,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="6">
-        <v>32.746499999999997</v>
+        <v>42.746499999999997</v>
       </c>
       <c r="E48" s="3">
         <v>3.5</v>
@@ -8543,7 +8776,7 @@
         <v>17</v>
       </c>
       <c r="D49" s="6">
-        <v>46.67</v>
+        <v>56.67</v>
       </c>
       <c r="E49" s="3">
         <v>9.65</v>
@@ -8566,7 +8799,7 @@
         <v>30</v>
       </c>
       <c r="D50" s="6">
-        <v>116.70730000000002</v>
+        <v>126.70730000000002</v>
       </c>
       <c r="E50" s="3">
         <v>21.35</v>
@@ -8586,7 +8819,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
@@ -8609,7 +8842,7 @@
         <v>22</v>
       </c>
       <c r="D52" s="6">
-        <v>27.042999999999999</v>
+        <v>37.042999999999999</v>
       </c>
       <c r="E52" s="3">
         <v>2.99</v>
@@ -8632,7 +8865,7 @@
         <v>17</v>
       </c>
       <c r="D53" s="6">
-        <v>102.20574999999999</v>
+        <v>112.20574999999999</v>
       </c>
       <c r="E53" s="4">
         <v>9.65</v>
@@ -8655,7 +8888,7 @@
         <v>28</v>
       </c>
       <c r="D54" s="6">
-        <v>310.846</v>
+        <v>320.846</v>
       </c>
       <c r="E54" s="3">
         <v>34.799999999999997</v>
@@ -8664,7 +8897,7 @@
         <v>290</v>
       </c>
       <c r="G54" s="3">
-        <v>-25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -8678,7 +8911,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="6">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E55" s="4">
         <v>46</v>
@@ -8687,7 +8920,7 @@
         <v>550</v>
       </c>
       <c r="G55" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -8701,7 +8934,7 @@
         <v>14</v>
       </c>
       <c r="D56" s="6">
-        <v>34.471999999999994</v>
+        <v>44.471999999999994</v>
       </c>
       <c r="E56" s="3">
         <v>9.1999999999999993</v>
@@ -8724,7 +8957,7 @@
         <v>27</v>
       </c>
       <c r="D57" s="6">
-        <v>175.75</v>
+        <v>185.75</v>
       </c>
       <c r="E57" s="3">
         <v>19.5</v>
@@ -8747,7 +8980,7 @@
         <v>10</v>
       </c>
       <c r="D58" s="6">
-        <v>208.72</v>
+        <v>218.72</v>
       </c>
       <c r="E58" s="4">
         <v>30</v>
@@ -8756,7 +8989,7 @@
         <v>690</v>
       </c>
       <c r="G58" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -8770,7 +9003,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="6">
-        <v>402.28800000000007</v>
+        <v>412.28800000000007</v>
       </c>
       <c r="E59" s="3">
         <v>46</v>
@@ -8779,7 +9012,7 @@
         <v>820</v>
       </c>
       <c r="G59" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -8793,7 +9026,7 @@
         <v>31</v>
       </c>
       <c r="D60" s="6">
-        <v>127.93600000000001</v>
+        <v>137.93600000000001</v>
       </c>
       <c r="E60" s="3">
         <v>81</v>
@@ -8813,7 +9046,7 @@
         <v>43</v>
       </c>
       <c r="D61" s="6">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -8822,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -8836,7 +9069,7 @@
         <v>37</v>
       </c>
       <c r="D62" s="6">
-        <v>76.542000000000002</v>
+        <v>86.542000000000002</v>
       </c>
       <c r="E62" s="4">
         <v>14</v>
@@ -8859,7 +9092,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="6">
-        <v>31.315000000000001</v>
+        <v>41.314999999999998</v>
       </c>
       <c r="E63" s="3">
         <v>3.5</v>
@@ -8882,7 +9115,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="6">
-        <v>71.722750000000005</v>
+        <v>81.722750000000005</v>
       </c>
       <c r="E64" s="4">
         <v>12.75</v>
@@ -8891,7 +9124,7 @@
         <v>470</v>
       </c>
       <c r="G64" s="3">
-        <v>-25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -8905,7 +9138,7 @@
         <v>11</v>
       </c>
       <c r="D65" s="6">
-        <v>471.89500000000004</v>
+        <v>481.89500000000004</v>
       </c>
       <c r="E65" s="3">
         <v>53</v>
@@ -8928,7 +9161,7 @@
         <v>25</v>
       </c>
       <c r="D66" s="6">
-        <v>158.13839999999999</v>
+        <v>168.13839999999999</v>
       </c>
       <c r="E66" s="3">
         <v>18.399999999999999</v>
@@ -8937,7 +9170,7 @@
         <v>880</v>
       </c>
       <c r="G66" s="3">
-        <v>-25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -8951,7 +9184,7 @@
         <v>24</v>
       </c>
       <c r="D67" s="6">
-        <v>94.47999999999999</v>
+        <v>104.47999999999999</v>
       </c>
       <c r="E67" s="3">
         <v>22</v>
@@ -8974,7 +9207,7 @@
         <v>38</v>
       </c>
       <c r="D68" s="6">
-        <v>193.33000000000004</v>
+        <v>203.33000000000004</v>
       </c>
       <c r="E68" s="3">
         <v>18</v>
@@ -8997,7 +9230,7 @@
         <v>25</v>
       </c>
       <c r="D69" s="6">
-        <v>201.268</v>
+        <v>211.268</v>
       </c>
       <c r="E69" s="3">
         <v>18.399999999999999</v>
@@ -9006,7 +9239,7 @@
         <v>990</v>
       </c>
       <c r="G69" s="3">
-        <v>-75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -9017,7 +9250,7 @@
         <v>39</v>
       </c>
       <c r="D70" s="6">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -9026,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -9040,7 +9273,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="6">
-        <v>35.802</v>
+        <v>45.802</v>
       </c>
       <c r="E71" s="3">
         <v>14</v>
@@ -9063,7 +9296,7 @@
         <v>25</v>
       </c>
       <c r="D72" s="6">
-        <v>55.54</v>
+        <v>65.539999999999992</v>
       </c>
       <c r="E72" s="3">
         <v>18.399999999999999</v>
@@ -9086,7 +9319,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="6">
-        <v>301.82400000000001</v>
+        <v>311.82400000000001</v>
       </c>
       <c r="E73" s="3">
         <v>46</v>
@@ -9109,7 +9342,7 @@
         <v>22</v>
       </c>
       <c r="D74" s="6">
-        <v>36.416650000000004</v>
+        <v>46.416650000000004</v>
       </c>
       <c r="E74" s="3">
         <v>2.99</v>
@@ -9132,7 +9365,7 @@
         <v>10</v>
       </c>
       <c r="D75" s="6">
-        <v>210.85</v>
+        <v>220.85</v>
       </c>
       <c r="E75" s="3">
         <v>30</v>
@@ -9141,7 +9374,7 @@
         <v>120</v>
       </c>
       <c r="G75" s="3">
-        <v>-75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -9155,7 +9388,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="6">
-        <v>13.734500000000001</v>
+        <v>23.734500000000001</v>
       </c>
       <c r="E76" s="4">
         <v>3.5</v>
@@ -9164,7 +9397,7 @@
         <v>110</v>
       </c>
       <c r="G76" s="3">
-        <v>-25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -9178,7 +9411,7 @@
         <v>17</v>
       </c>
       <c r="D77" s="6">
-        <v>91.59075</v>
+        <v>101.59075</v>
       </c>
       <c r="E77" s="3">
         <v>9.65</v>
@@ -9201,7 +9434,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="6">
-        <v>23.634399999999999</v>
+        <v>33.634399999999999</v>
       </c>
       <c r="E78" s="3">
         <v>2.99</v>
@@ -9224,7 +9457,7 @@
         <v>17</v>
       </c>
       <c r="D79" s="6">
-        <v>82.954000000000008</v>
+        <v>92.954000000000008</v>
       </c>
       <c r="E79" s="3">
         <v>9.65</v>
@@ -9233,7 +9466,7 @@
         <v>720</v>
       </c>
       <c r="G79" s="3">
-        <v>-25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -9244,7 +9477,7 @@
         <v>53</v>
       </c>
       <c r="D80" s="6">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E80" s="3">
         <v>0</v>
@@ -9253,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="3">
-        <v>-75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -9267,7 +9500,7 @@
         <v>32</v>
       </c>
       <c r="D81" s="6">
-        <v>23.72</v>
+        <v>33.72</v>
       </c>
       <c r="E81" s="3">
         <v>7</v>
@@ -9276,7 +9509,7 @@
         <v>910</v>
       </c>
       <c r="G81" s="3">
-        <v>-75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -9290,7 +9523,7 @@
         <v>17</v>
       </c>
       <c r="D82" s="6">
-        <v>78.582550000000012</v>
+        <v>88.582550000000012</v>
       </c>
       <c r="E82" s="3">
         <v>9.65</v>
@@ -9313,7 +9546,7 @@
         <v>11</v>
       </c>
       <c r="D83" s="6">
-        <v>458.11500000000001</v>
+        <v>468.11500000000001</v>
       </c>
       <c r="E83" s="4">
         <v>53</v>
